--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H2">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>38.03024244889778</v>
+        <v>0.07442621253688889</v>
       </c>
       <c r="R2">
-        <v>342.2721820400801</v>
+        <v>0.6698359128319999</v>
       </c>
       <c r="S2">
-        <v>0.3846582283600815</v>
+        <v>0.006234655628438898</v>
       </c>
       <c r="T2">
-        <v>0.3846582283600815</v>
+        <v>0.006234655628438899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H3">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>37.48325639076445</v>
+        <v>1.823624817116444</v>
       </c>
       <c r="R3">
-        <v>337.3493075168801</v>
+        <v>16.412623354048</v>
       </c>
       <c r="S3">
-        <v>0.3791257185859995</v>
+        <v>0.1527643600641453</v>
       </c>
       <c r="T3">
-        <v>0.3791257185859995</v>
+        <v>0.1527643600641453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H4">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>5.594779277962222</v>
+        <v>0.2721956233262222</v>
       </c>
       <c r="R4">
-        <v>50.35301350166</v>
+        <v>2.449760609936</v>
       </c>
       <c r="S4">
-        <v>0.05658859230304531</v>
+        <v>0.02280172424689938</v>
       </c>
       <c r="T4">
-        <v>0.05658859230304531</v>
+        <v>0.02280172424689937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.256445</v>
       </c>
       <c r="I5">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J5">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>7.830784869971111</v>
+        <v>0.3149952011955556</v>
       </c>
       <c r="R5">
-        <v>70.47706382973999</v>
+        <v>2.83495681076</v>
       </c>
       <c r="S5">
-        <v>0.07920474971463978</v>
+        <v>0.02638702867073514</v>
       </c>
       <c r="T5">
-        <v>0.07920474971463978</v>
+        <v>0.02638702867073514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.256445</v>
       </c>
       <c r="I6">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J6">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>7.718155292237777</v>
@@ -818,10 +818,10 @@
         <v>69.46339763013999</v>
       </c>
       <c r="S6">
-        <v>0.07806555387885032</v>
+        <v>0.6465469448692601</v>
       </c>
       <c r="T6">
-        <v>0.07806555387885031</v>
+        <v>0.6465469448692601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.256445</v>
       </c>
       <c r="I7">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J7">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
         <v>1.152017712733889</v>
@@ -880,10 +880,10 @@
         <v>10.368159414605</v>
       </c>
       <c r="S7">
-        <v>0.01165212378057017</v>
+        <v>0.09650408736300695</v>
       </c>
       <c r="T7">
-        <v>0.01165212378057017</v>
+        <v>0.09650408736300693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H8">
         <v>0.206369</v>
       </c>
       <c r="I8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>0.4962562680564443</v>
+        <v>0.01996202751022222</v>
       </c>
       <c r="R8">
-        <v>4.466306412508</v>
+        <v>0.179658247592</v>
       </c>
       <c r="S8">
-        <v>0.005019401523397599</v>
+        <v>0.001672211482076602</v>
       </c>
       <c r="T8">
-        <v>0.005019401523397599</v>
+        <v>0.001672211482076602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H9">
         <v>0.206369</v>
       </c>
       <c r="I9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
-        <v>0.489118652243111</v>
+        <v>0.4891186522431111</v>
       </c>
       <c r="R9">
         <v>4.402067870188</v>
       </c>
       <c r="S9">
-        <v>0.004947207856550459</v>
+        <v>0.04097328419970991</v>
       </c>
       <c r="T9">
-        <v>0.004947207856550459</v>
+        <v>0.04097328419970991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H10">
         <v>0.206369</v>
       </c>
       <c r="I10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>0.07300622100455553</v>
+        <v>0.07300622100455556</v>
       </c>
       <c r="R10">
-        <v>0.6570559890409998</v>
+        <v>0.657055989041</v>
       </c>
       <c r="S10">
-        <v>0.0007384239968654421</v>
+        <v>0.00611570347572779</v>
       </c>
       <c r="T10">
-        <v>0.0007384239968654421</v>
+        <v>0.006115703475727788</v>
       </c>
     </row>
   </sheetData>
